--- a/Statystyki_2018/Template/oktc_.xlsx
+++ b/Statystyki_2018/Template/oktc_.xlsx
@@ -609,7 +609,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AA24"/>
+  <dimension ref="A2:AD24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
@@ -799,6 +799,27 @@
       <c r="W4" s="15">
         <v>0</v>
       </c>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="14">
@@ -867,6 +888,27 @@
       <c r="W5" s="15">
         <v>0</v>
       </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="14">
@@ -935,6 +977,27 @@
       <c r="W6" s="15">
         <v>0</v>
       </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="14">
@@ -1003,6 +1066,27 @@
       <c r="W7" s="15">
         <v>0</v>
       </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>2538</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>2700</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="14">
@@ -1071,6 +1155,27 @@
       <c r="W8" s="15">
         <v>0</v>
       </c>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>2556</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>2700</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="14">
@@ -1139,6 +1244,27 @@
       <c r="W9" s="15">
         <v>0</v>
       </c>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="14">
@@ -1207,6 +1333,27 @@
       <c r="W10" s="15">
         <v>0</v>
       </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="14">
@@ -1275,6 +1422,27 @@
       <c r="W11" s="15">
         <v>0</v>
       </c>
+      <c r="X11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="14">
@@ -1343,6 +1511,27 @@
       <c r="W12" s="15">
         <v>0</v>
       </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="14">
@@ -1411,6 +1600,27 @@
       <c r="W13" s="15">
         <v>0</v>
       </c>
+      <c r="X13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>2538</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>2700</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="14">
@@ -1479,6 +1689,27 @@
       <c r="W14" s="15">
         <v>0</v>
       </c>
+      <c r="X14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>2556</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>2700</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="14">
@@ -1545,6 +1776,27 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
         <v>0</v>
       </c>
     </row>
